--- a/backend/django_admin/country/management/commands/countries.xlsx
+++ b/backend/django_admin/country/management/commands/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\projects\travel_buddy\backend\django_admin\country\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0AECF1-6356-41C9-91D2-FDEA90494D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E88F44-FD43-4386-BD12-013CC066FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4106FF1B-B634-4434-B58C-B4C1EE635E22}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>Souks, spices, and Sahara sands—apps to navigate your Moroccan escape.</t>
+  </si>
+  <si>
+    <t>From bustling bazaars to serene temples—apps to guide your Indian adventure.</t>
+  </si>
+  <si>
+    <t>IN </t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CB227C-2544-4727-902D-1788B588FBCE}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,6 +1440,17 @@
         <v>83</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
